--- a/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>TMPM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,39 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +710,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +745,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +780,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +815,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +834,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +865,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +900,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +935,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +970,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,8 +986,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,14 +997,14 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,8 +1017,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,14 +1032,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1052,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1071,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,13 +1082,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1102,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1137,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,23 +1172,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-300</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1207,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1242,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,23 +1277,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-300</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,23 +1312,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-300</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1347,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1382,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1417,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1452,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1487,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1362,13 +1502,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-2900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1382,23 +1522,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-300</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1557,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,23 +1592,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-300</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,28 +1627,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1667,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1686,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1701,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1732,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1767,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1802,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,22 +1837,28 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1674,23 +1872,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,37 +1907,49 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>97800</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>97800</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1977,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +2012,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2047,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +2082,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>97800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2117,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,23 +2152,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F54" s="3">
         <v>99200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2187,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2206,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,22 +2221,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1990,23 +2252,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2287,14 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2028,14 +2302,14 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,23 +2322,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2357,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,19 +2392,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>9700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2427,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2462,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2497,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,23 +2532,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="E66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2567,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2586,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2617,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2652,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2687,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,23 +2722,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2757,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2792,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2827,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,22 +2862,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>95700</v>
+      <c r="D76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>92000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>89300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2897,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,28 +2932,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,23 +2972,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-300</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3007,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +3026,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +3057,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3092,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3127,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3162,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3197,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,16 +3232,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-500</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3267,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3286,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3317,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3352,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3387,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2962,8 +3422,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3441,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3472,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3507,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3542,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,8 +3577,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3120,8 +3612,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,16 +3647,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>1200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3176,6 +3680,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>TMPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -716,8 +717,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -751,8 +755,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,8 +793,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +831,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +849,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +923,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,8 +961,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +999,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,26 +1014,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1050,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,17 +1062,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1088,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,8 +1106,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1082,16 +1116,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1108,8 +1142,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1143,8 +1180,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,26 +1218,29 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,8 +1256,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1248,8 +1294,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,26 +1332,29 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,26 +1370,29 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1408,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1484,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,8 +1560,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1502,16 +1572,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1528,26 +1598,29 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,26 +1674,29 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1633,31 +1712,34 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1755,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,23 +1789,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,8 +1825,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,8 +1863,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1808,8 +1901,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,8 +1939,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1852,7 +1951,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -1860,8 +1959,8 @@
       <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1878,26 +1977,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,8 +2015,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1924,8 +2029,8 @@
       <c r="E47" s="3">
         <v>97800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>97800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2044,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -1948,8 +2053,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1983,8 +2091,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2018,8 +2129,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,8 +2205,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2099,12 +2219,12 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>97800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2243,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,26 +2281,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E54" s="3">
         <v>98800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>99000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>99200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2319,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,25 +2353,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2258,8 +2389,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2272,12 +2406,12 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2293,26 +2427,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,26 +2465,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2503,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2398,23 +2541,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E62" s="3">
         <v>6600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,8 +2579,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,26 +2693,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,8 +2731,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,26 +2899,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-200</v>
+        <v>-5400</v>
       </c>
       <c r="E72" s="3">
         <v>-200</v>
       </c>
       <c r="F72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,8 +2937,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,25 +3051,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>92300</v>
       </c>
       <c r="E76" s="3">
         <v>92000</v>
       </c>
       <c r="F76" s="3">
+        <v>92000</v>
+      </c>
+      <c r="G76" s="3">
         <v>89300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2903,8 +3089,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,31 +3127,34 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2978,26 +3170,29 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3208,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3226,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3063,8 +3262,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,25 +3452,28 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3273,8 +3490,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,8 +3508,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3323,8 +3544,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,8 +3620,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3428,8 +3658,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3676,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,8 +3826,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3618,8 +3864,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,25 +3902,28 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3686,6 +3938,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>TMPM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,50 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,8 +721,14 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,8 +765,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +809,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +853,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +875,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +915,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,8 +959,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,8 +1003,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1047,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,32 +1066,34 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1106,14 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,23 +1121,23 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1150,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1172,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1116,22 +1183,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1212,14 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1183,8 +1256,14 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1221,32 +1300,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1344,14 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,8 +1388,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,32 +1432,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,32 +1476,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1520,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1564,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1608,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1652,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1696,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1572,22 +1711,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1601,32 +1740,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1784,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,32 +1828,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,37 +1872,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1921,14 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1943,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,29 +1961,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +2001,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,8 +2045,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1904,8 +2089,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,31 +2133,37 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1980,32 +2177,38 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2221,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,11 +2241,11 @@
       <c r="F47" s="3">
         <v>97800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>97800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>97800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2047,17 +2256,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2094,8 +2309,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2132,8 +2353,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2397,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,8 +2441,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2222,15 +2461,15 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>97800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2485,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,32 +2529,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>98300</v>
+      </c>
+      <c r="F54" s="3">
         <v>98600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>98800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>99000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>99200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2573,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2595,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,31 +2613,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2392,8 +2653,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2409,15 +2676,15 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,32 +2697,38 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,32 +2741,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,8 +2785,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,29 +2829,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F62" s="3">
         <v>5800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2873,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2917,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2961,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,32 +3005,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3049,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +3071,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +3111,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +3155,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3199,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,32 +3243,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3287,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3331,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3375,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,31 +3419,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92300</v>
+        <v>-5000</v>
       </c>
       <c r="E76" s="3">
         <v>92000</v>
       </c>
       <c r="F76" s="3">
+        <v>92300</v>
+      </c>
+      <c r="G76" s="3">
         <v>92000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>92000</v>
+      </c>
+      <c r="I76" s="3">
         <v>89300</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3092,8 +3463,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,37 +3507,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,32 +3556,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3600,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,8 +3622,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3265,8 +3662,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3706,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3750,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3794,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3838,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,8 +3882,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3470,16 +3903,16 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3493,8 +3926,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,8 +3948,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3547,8 +3988,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +4032,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,8 +4076,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3661,8 +4120,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +4142,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +4182,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +4226,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4270,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,8 +4314,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3867,8 +4358,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,8 +4402,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3920,16 +4423,16 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3941,6 +4444,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMPM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,8 +728,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +775,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,8 +822,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +890,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -921,8 +935,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -965,8 +982,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1076,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1068,35 +1094,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,8 +1139,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,23 +1154,23 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1186,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1207,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1183,25 +1217,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1218,8 +1252,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1262,8 +1299,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,35 +1346,38 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>700</v>
       </c>
       <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,8 +1393,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1394,8 +1440,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,35 +1487,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>700</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1482,35 +1534,38 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>700</v>
       </c>
       <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,8 +1581,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1570,8 +1628,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,8 +1675,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1658,8 +1722,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +1769,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1711,25 +1781,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1746,35 +1816,38 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>700</v>
       </c>
       <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1863,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1834,35 +1910,38 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>700</v>
       </c>
       <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,40 +1957,43 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1927,8 +2009,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,8 +2030,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1963,32 +2049,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2094,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,8 +2141,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2095,8 +2188,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2139,8 +2235,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2151,13 +2250,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -2165,8 +2264,8 @@
       <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>300</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2183,35 +2282,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2329,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2247,8 +2352,8 @@
       <c r="H47" s="3">
         <v>97800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>97800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2262,8 +2367,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2271,8 +2376,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2315,8 +2423,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,8 +2470,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2403,8 +2517,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2447,8 +2564,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2467,12 +2587,12 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>97800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,8 +2611,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2535,35 +2658,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E54" s="3">
         <v>98100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>99000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>99200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,8 +2705,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2597,8 +2726,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,34 +2745,35 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2790,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2682,12 +2816,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2837,11 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2712,26 +2849,26 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2747,35 +2884,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2791,8 +2931,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2835,32 +2978,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>4500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2879,8 +3025,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3072,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2967,8 +3119,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3011,35 +3166,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3213,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3073,8 +3234,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3117,8 +3279,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3161,8 +3326,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3205,8 +3373,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3249,35 +3420,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-200</v>
       </c>
       <c r="H72" s="3">
         <v>-200</v>
       </c>
       <c r="I72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3293,8 +3467,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3337,8 +3514,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3381,8 +3561,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3425,34 +3608,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5000</v>
+        <v>93500</v>
       </c>
       <c r="E76" s="3">
+        <v>92800</v>
+      </c>
+      <c r="F76" s="3">
         <v>92000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>92300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>92000</v>
       </c>
       <c r="H76" s="3">
         <v>92000</v>
       </c>
       <c r="I76" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J76" s="3">
         <v>89300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3655,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3513,40 +3702,43 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3562,35 +3754,38 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>700</v>
       </c>
       <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3606,8 +3801,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3624,8 +3822,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3668,8 +3867,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3914,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,8 +3961,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3800,8 +4008,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3844,8 +4055,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,8 +4102,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3909,13 +4126,13 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3932,8 +4149,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3950,8 +4170,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3994,8 +4215,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4038,8 +4262,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4082,8 +4309,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4126,8 +4356,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4144,8 +4377,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4188,8 +4422,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4232,8 +4469,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4276,8 +4516,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4320,8 +4563,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4364,8 +4610,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4408,8 +4657,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4429,13 +4681,13 @@
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -4450,6 +4702,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
